--- a/public/semana_actual.xlsx
+++ b/public/semana_actual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruymy\Documents\TFG\StorageCSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruymy\Documents\TFG\StorageCSR\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F23B36-A137-40A9-ACDA-7FE7EF57C04A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB1EB03-3171-4FDC-9D97-5FA41A7703A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A0371084-3A69-4FBF-931F-C13DD5562A6A}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Timestamp_final</t>
-  </si>
-  <si>
-    <t>Timestamp_inicio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>0_6cqniypl</t>
   </si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>16:50</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,110 +512,90 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
-        <v>1559836800000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1559844000000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
-        <v>1559844000000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1559847600000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
